--- a/public/fileTemplates/ImportExamTemplate.xlsx
+++ b/public/fileTemplates/ImportExamTemplate.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyenvankhai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FDCA30-C322-4BE4-A6E9-AD1025A04306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8390F-7A7C-4167-8A1B-ADCA8A0D471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4FA5567D-8459-4EBC-93C8-27EE53836DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4FA5567D-8459-4EBC-93C8-27EE53836DDC}"/>
   </bookViews>
   <sheets>
-    <sheet name="QuestionOthers" sheetId="1" r:id="rId1"/>
-    <sheet name="QuestionStudents" sheetId="3" r:id="rId2"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nội dung câu hỏi</t>
   </si>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>[STUDENT] Có 1 chiếc thuyền tối đa là chỉ chở được hai người, nếu thêm người thứ 3 sẽ bị chìm ngay lập tức. Hỏi tại sao người ta trông thấy trên chiếc thuyền đó có ba thằng Mỹ đen và ba thằng Mỹ trắng ngồi trên chiếc thuyền đó mà ko bị chìm?</t>
   </si>
 </sst>
 </file>
@@ -492,10 +488,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,210 +673,379 @@
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
+    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F45" xr:uid="{2233081A-DF0C-4479-B8D3-01FFC91D03E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F167" xr:uid="{2233081A-DF0C-4479-B8D3-01FFC91D03E6}">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F3A370-E5B6-488C-AAE2-772E0A290C64}">
-  <dimension ref="A1:F45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="90" customWidth="1"/>
-    <col min="6" max="6" width="135.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F45" xr:uid="{06A6151F-8745-4D53-A042-46262011D633}">
-      <formula1>"A,B,C,D"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/fileTemplates/ImportExamTemplate.xlsx
+++ b/public/fileTemplates/ImportExamTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>Câu hỏi text</t>
+    <t>Truyện dân gian nổi tiếng về trầu cau là gì?</t>
   </si>
   <si>
-    <t>Khải</t>
+    <t>Sự tích trầu cau</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +97,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -248,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,12 +316,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,12 +334,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,12 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -438,12 +413,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,83 +544,89 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,10 +635,10 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,10 +647,10 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,37 +659,31 @@
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1023,7 @@
   <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1122,11 +1091,6 @@
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
